--- a/data_after/연령별인구현황/변환후_연령별인구현황(2022.11월)-게시용.xlsx
+++ b/data_after/연령별인구현황/변환후_연령별인구현황(2022.11월)-게시용.xlsx
@@ -563,7 +563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -895,7 +895,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1227,7 +1227,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1393,7 +1393,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1559,7 +1559,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1642,7 +1642,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1808,7 +1808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2223,7 +2223,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2306,7 +2306,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2389,7 +2389,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2472,7 +2472,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2555,7 +2555,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2804,7 +2804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2887,7 +2887,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2970,7 +2970,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3053,7 +3053,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3219,7 +3219,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3302,7 +3302,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3385,7 +3385,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3551,7 +3551,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3883,7 +3883,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4049,7 +4049,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4215,7 +4215,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4298,7 +4298,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4381,7 +4381,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4464,7 +4464,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4547,7 +4547,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4630,7 +4630,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4713,7 +4713,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4796,7 +4796,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4879,7 +4879,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5045,7 +5045,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5211,7 +5211,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5294,7 +5294,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5377,7 +5377,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5543,7 +5543,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5626,7 +5626,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5709,7 +5709,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5792,7 +5792,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5875,7 +5875,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6041,7 +6041,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6207,7 +6207,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6290,7 +6290,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6373,7 +6373,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6456,7 +6456,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6539,7 +6539,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6622,7 +6622,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6705,7 +6705,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6871,7 +6871,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6954,7 +6954,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7037,7 +7037,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7120,7 +7120,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7203,7 +7203,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7286,7 +7286,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7369,7 +7369,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7452,7 +7452,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7535,7 +7535,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7701,7 +7701,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7784,7 +7784,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7867,7 +7867,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7950,7 +7950,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8033,7 +8033,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8199,7 +8199,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2022년 12 월</t>
+          <t>2022년 11 월</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
